--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70192CA3-5177-AC47-8953-35C68F8178F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32754B07-2D44-7543-8FA4-D6470F74273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="125">
   <si>
     <t>Date</t>
   </si>
@@ -193,12 +193,6 @@
     <t xml:space="preserve">- &lt;a href="https://www.assemblyai.com/blog/how-chatgpt-actually-works/"&gt; How ChatGPT actually works &lt;/a&gt; </t>
   </si>
   <si>
-    <t>- Project Preliminary Analysis</t>
-  </si>
-  <si>
-    <t>- Project Peer Review (by lab time)</t>
-  </si>
-  <si>
     <t>Data Science in a Box Unit Order</t>
   </si>
   <si>
@@ -404,6 +398,21 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>- Homework 3</t>
+  </si>
+  <si>
+    <t>-Project EDA</t>
+  </si>
+  <si>
+    <t>- Homework 4</t>
+  </si>
+  <si>
+    <t>-Project Preliminary Analysis</t>
+  </si>
+  <si>
+    <t>-Project Peer Review</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -465,6 +474,7 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,7 +696,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -703,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -741,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -786,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -852,11 +862,11 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -875,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -896,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>21</v>
@@ -947,7 +957,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -993,6 +1003,9 @@
       <c r="F13" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="G13" s="7" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1004,7 +1017,7 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
@@ -1013,13 +1026,11 @@
         <v>32</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="G14" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1037,7 +1048,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1055,7 +1066,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1073,7 +1084,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1105,7 +1116,7 @@
         <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>34</v>
@@ -1121,7 +1132,7 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>33</v>
@@ -1130,7 +1141,7 @@
         <v>35</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>36</v>
@@ -1155,7 +1166,7 @@
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1169,7 +1180,7 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>39</v>
@@ -1178,7 +1189,10 @@
         <v>41</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1200,9 +1214,11 @@
         <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
@@ -1214,16 +1230,16 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1245,9 +1261,11 @@
         <v>45</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
@@ -1259,7 +1277,7 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>44</v>
@@ -1268,7 +1286,7 @@
         <v>46</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1281,16 +1299,18 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="G27" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -1302,7 +1322,7 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>47</v>
@@ -1322,7 +1342,7 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>28</v>
@@ -1331,6 +1351,9 @@
         <v>49</v>
       </c>
       <c r="F29" s="1"/>
+      <c r="G29" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
@@ -1345,17 +1368,15 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>51</v>
-      </c>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
@@ -1370,15 +1391,13 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="F31" s="1"/>
-      <c r="G31" s="3" t="s">
-        <v>52</v>
-      </c>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
@@ -2484,197 +2503,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/planning244_s25.xlsx
+++ b/planning244_s25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robinbelton/Repositories/M244-Spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32754B07-2D44-7543-8FA4-D6470F74273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4FDF24-2752-F247-B4B7-9280863EAFE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,15 +103,9 @@
     <t>Web Scraping</t>
   </si>
   <si>
-    <t>- &lt;a href="https://rvest.tidyverse.org/articles/rvest.html"&gt;Web scraping 101&lt;/a&gt;  &lt;br&gt; - &lt;a href="https://r4ds.hadley.nz/functions.html"&gt;R4DS Ch. 25: Functions&lt;/a&gt; &lt;br&gt; - Lecture 6 prep slides</t>
-  </si>
-  <si>
     <t>- Homework 1 &lt;br&gt;</t>
   </si>
   <si>
-    <t>- &lt;a href="https://jakevdp.github.io/WhirlwindTourOfPython/08-defining-functions.html"&gt; A Whirlwind Tour of Python Ch. 9: Defining Functions &lt;/a&gt;   &lt;br&gt; - Lecture 7 prep slides</t>
-  </si>
-  <si>
     <t>Practicing Web Scraping</t>
   </si>
   <si>
@@ -142,9 +136,6 @@
     <t>Regression</t>
   </si>
   <si>
-    <t>- ISLP Ch. 3 &lt;br&gt; - Lecture 12 Prep Slides</t>
-  </si>
-  <si>
     <t>Regularization and Shrinkage: Ridge and LASSO</t>
   </si>
   <si>
@@ -413,6 +404,15 @@
   </si>
   <si>
     <t>-Project Peer Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- &lt;a href="https://rvest.tidyverse.org/articles/rvest.html"&gt;Web scraping 101&lt;/a&gt;  &lt;br&gt; - &lt;a href="https://r4ds.hadley.nz/functions.html"&gt;R4DS Ch. 25: Functions&lt;/a&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- &lt;a href="https://jakevdp.github.io/WhirlwindTourOfPython/08-defining-functions.html"&gt; A Whirlwind Tour of Python Ch. 9: Defining Functions &lt;/a&gt;   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- ISLP Ch. 3 </t>
   </si>
 </sst>
 </file>
@@ -696,7 +696,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -713,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -796,7 +796,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
@@ -862,11 +862,11 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -906,13 +906,13 @@
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -931,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -951,13 +951,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -974,10 +974,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -995,16 +995,16 @@
         <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1017,20 +1017,20 @@
         <v>45722</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="4">
         <f>B14+5</f>
@@ -1038,17 +1038,17 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="4">
         <f>B15+2</f>
@@ -1056,17 +1056,17 @@
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B17" s="4">
         <f>B16+5</f>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" s="4">
         <f>B17+2</f>
@@ -1092,10 +1092,10 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -1113,13 +1113,13 @@
         <v>6</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1132,19 +1132,19 @@
         <v>45743</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1160,13 +1160,13 @@
         <v>6</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1180,19 +1180,19 @@
         <v>45750</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1208,16 +1208,16 @@
         <v>6</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1230,16 +1230,16 @@
         <v>45757</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1255,16 +1255,16 @@
         <v>6</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1277,16 +1277,16 @@
         <v>45764</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,17 +1299,17 @@
         <v>45769</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1322,13 +1322,13 @@
         <v>45771</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1"/>
     </row>
@@ -1342,17 +1342,17 @@
         <v>45776</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1368,13 +1368,13 @@
         <v>6</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G30" s="3"/>
     </row>
@@ -1391,10 +1391,10 @@
         <v>9</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="3"/>
@@ -2503,197 +2503,197 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G16" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G17" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H18" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="7:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
